--- a/Testdata/TC_Unit Manipulation_01.xlsx
+++ b/Testdata/TC_Unit Manipulation_01.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>nlYAAB+LCAAAAAAAAAPtXFtv48YV/iuEnxKg8pC6WXJmGciSvStUtgxLzq7zsqDIkc0uRSq82NZb+lAESC9A0SRAekUeigYBmuYhLdKkaP9LEO+mT/0LPTPDy5Ci1qLX7ToIgwWiOZe5njnnO8cD4tcvZ5Z0TlzPdOx7G8qmvCERW3cM0z69txH404rS3HhdxbuXOrEONVebER+EJdCyve1Lz7y3ceb7822ELi4uNi9qm457iqqyrKBH+4ORfkZmWsW0PV+zdbIRaxnXa22ouGvM9omvGZqvcc17G/1Rf7NLTL0HtH3N1k6Ju7kTeKZNPG/X9k3fJB7VdInmk25v/w2+MLW62dxUMFqiJ5I7gWkZXC4lyemhHAxLxuaMqFW5KleUakWujRV5u9raVlqbcqP5ZqQYC+KB5vkj4p6bOiOMfG02Z+pKVa4pcrWltDDKFYK+kg1Q8dAyjsi56RGjSyzLK7QjKDzAju7DqottpoyRoBt2dPMp3He1+dnY9C1SVH3PcYkOG3WjsQ/IxdAN9288HwB3fGa6/qKnLQr3dewRdzinu1FMVcU9x/Y7FnH94zkcKjHgzIGh+m5AMFrBTJR6pqfDb9MOiKFONcsTlVJM/NBxn3hzTScHcGER7ePCthzNAMvyTc839WTQJQY+dJ059AiD7ziWsQe9hsI5jLjnvg1bTIfdcZwnyezymJjZALMGONOZ5kfiS3Q8OnMuhra1GAUTT3fNCTF6O5F0Lg/TmxdqdwPPd2Ywi4SEOU2gLOA/uGlZMu4R3Zxp1qEFm+ipNeglRcCdwHempt91rGBme9GcMlT8EFY0JpfxCuM2HsLh2nTTHbtvR/J8m3NZaYUj5yIec5nBNkEgdzw9Ou5lRla4B7To+JY57EToKvdMCwKBeBYCNW0VozNC/FyT4BxMfd4eDS3qzoKOiVFCwWCZYN1AVWmAqLB/Y1neZv9g5JiNd20jlFOYc66JchETHwSz4QRu8Dlbk6oAL0PCsAprx9LsJ0B9aPpnB51o9jkczNe8Un6Zh+Guzi1twcjxvog03Ld1KzAIdwF9e8qMks6NH+NKNl4iDeBWq1izF+PFHFyuZ2778OPeBgThbc93IcxvqLoT2L67oL4Co1D0Oh0vmNhsAM1aW2fqkrcCQBeLvcDWu46x/mgG351j2/TXn6ETuNwBrq/Cdo/6wsDrEepVmJtfW18vsibPLSQ+s8nMsU19/d2GTaazN26wEC+6VWtrEH6/1pa3IJLzQEfv+tpqLkBDCG2Fhul4nqObzFjD62EI+mjFlemRqRZYAMt8CKqnsbfNknHHe5KVEUn42LUin6dS0OsB6tWN2aYOcIEiu03dmVECArD5cISRKE8xj0527dOBZp8GgCpiv5Klxx6XRsSxq9keXU4MIjLON18IR36KgxuVO69hwAyBOy8HuBhl5PCYzOaOq1n7sDHmXmh2IUIC8LGv+WdhC6KZRfRok1GiGmulZxZN/DoxFpb4MuiFD91khsiE6Fo4vk5kEhqmq9yHa2l1NcucuNyrRsE7jwcHlsDByP/SxRWEhtEZQI4F8faHZEGBd9II6cxklYjBDZg6UnV0VG9VG3KjAViGtjFb8X3n3JcA9RJAhVJFGmuX0mtS3zbMc9MINAt+gvHByvj2hCGokKaog/ci/86m0IF5pilpAUAWpyaEj2XBmJMoqCdEc62FIMiXOHB0kHv63r+uvvzt0/f+dvWTP1aeffyLq3c/+s8/fv3NF5988+WXnMrXyKXxWJtYhM1ovNNqybU6GFhMwnRXEUPBRqD7jHZywsBv3MZhssYa3d1+9/5ghzmSmBip81iCaB64cIKkOeKrYAOxs0SRCXARdRw5prCd4gqxSaV52TlJS4v8VYp8L5599adnX/15pXa4YQnIUtrtFkt8r8dgypJcjMEGKedPhesVuVGpVgXhjAw+4p4/3qe+oUL+3JaVLVmJnbgRW3GeUJYV9jTWTlFGj5O6HBfFJiC2Iyaz/DHx/JjN74LQCG30rz/99i/vp6TC3Q0p6V5gcgy/0MFQ1GBdHxyNpdHw+Ki7K413R9ROEp4gxzt/jnA4enyhUkZl23DLfyBBVIcoJm1A8rMhOVOJaPqZtICrKFzElLHlUflAN+wyO8v7rhPM+YkICgk1RzJ2J7kaOc6G8dh+LnmdhJUjzud69ffP8xTChfQSJKse7e9IMzu2S0bDKQ4nCfzw1n74z2++eIc6t89+efXFj1M9hOPEFQCwc7hNYjM2e3B5YaDJUPDDEdvMJ/JjIbCERJpBHTqm7XuqUmfJU9jCoKrQ3tj/cX8GsY51zPYL6BkKfqB5u5d+eLHVA4zSBJjnXIMw6yRpZkzgPjzZ13//7vdPf/P50w8++/adT67e/fjqZx88++oP3376Eb91T9//7OnPPw29fDYQsLnQ5JWjP4mVQnSJ3kaJBm3p67d/JdmOLwHWkALmkb5++0OhMzpRhkqSngHLxRNJT2FJVFSmepIwlXgOKb1YhUf+Lg1htVgiDGLO3NSTQd6s0K7ovWOMV/rjSuARyQEY9SqsJC2cKK+rF6rwkHq4JVeVasjls6FLmGiesPX3LWcCMCJisFpDRiSl9XyFRJaNd38w3OkMEhE+iaFrEJeaIf+B+16EJiPzEijABZSnBxYtCS2JLbNw9EtwXSisrUw7BnV5qpxXv0hJ4G7guhwF2WFNfhTMAflGFbjVfFaVFMDuAQemIvxN2v1emg9tgQvBL82mBMZn7ihkcdfU92gZh2PXA7o1SRN4qUombEdYdufoCpAkcRH1Nbuu67i5DifhRGL7AJvBi6Bkx2MZRIfkENtIzioiRE6uhNol1C6hdgm1S6j9fYPaZ8YqqE05K6B2jmJxhK2sRtjK42arMZnW2nqlSfRWpW7I9Yom67VKrd3QW9Pp1qS2VXsJ4Ds6rJw/Mqycw/pR6Sbn/jxTzMmabtuTvnDMfr4zvcbJXZ+zoeecWJlJlZnUbWdSSpxJRUjc47X+zF8AwBkZ6vFBf/x4v3PQPzwedMb9Ic0VKIIQAhoXOR6M+4eD/u7RKw8C23CJ8ZrEkx1f0ixLmtE/McwtExKJV+kfY4R4mLxO4tOI2yFuh/t+Svz9uIMIvr+hWQFRH/Qw4r8YKlW7w4PRuHMAYTz8M1Gmy7wRtPncYhFi1SDjo+PdYsMgcVUcvmaTEIEan0TiGTuu6Z9BB6Y+nBP+NwsPXOiSXKxKk71EScrTYvlgNp0O3ZHDFchN0yvEkw2U8rcoE1qy7cjziXQkZC1ISERQXtqBUnkGeuGcAq3MBVZzopkmgSm3YJATt3LlVmUAucLXZwBZ2M4o64N6lApwaBm0JyS0Eo+jJdCN8mHwCvKSSmz+ucQ8q4rBSS4xGkAAi4hjE7QMLdHtFGmRiMfkF4KE66MEJBDQctROk1AqzKJsSBUJSIh/KCfaZWgoHa5Q6JXQd624F459l6t76Cb1PHR7ZTshsPTM6fQEIOSj5O1UROAzTnqhDR5Tl0AJElCLYBvhA6vbNZabYJu8bsp6ctF68vrp9R0uNW8pK0vN1xWU72LZuCwQ31aBuCGvWdao/p8KxK11CsStskBcFojvYoH4DrzFqK6uFFcfC+FguRzcrJVvMcoK4neqglgt32LcZeyccTglQC4BcgmQS4BcAuTvLUB+eS8oaqtxce1xazqRSbXZrrSbxrRSb2zplbbRNCpaQzfq9eZWbfJSIPNaLygyc7izLyhuw5OuGYOf7zLLdxJllvOdynJq5TuJl/5OYksp30mU7yTKdxLlO4nynUT5TqJ8J1G+kyhrvala7/pJ9P+kDBz+4F9eiQy5RywAdEW/zhZp7zvnN9YFsyiq2veGlhHuc7FPf8TbknQgfiuP2lDRyXRcFxAG/bhW4Y/bDUz7Sb/Y6tWqMW03Js2G1mrW29VqW2lPJ61JuzZpy42GAmvjndJkgHYxAxxIv6NSbBCF+idRPfnmzZFmnxbsjW8wU6TfhYGdYnc1zHzjNt4zXc9/REFA+ItTTmLKCQeOj9Q6R4ePePtErTU4AQSQOBhKzTpyPT7/rKJjDcyZWfDbMXLkn9KdgBnM5xwHFj3Qbm//gFz6GAk9AGaY/AjgCf/YUpHe+K2CBCjWj/oaBZPC3aFI+RD41LBupr1rALy8uTb7SKFpvcAEGKi8aRd92zNPz/zCF1WTDWWqNSvtaoNU6ooG7p00jEqj2qwp9boit/Uq/bpc2DkEDpNcFByEhhvTCzSruB7KfGVW/S/zHZWSnlYAAA==</t>
+          <t>8lcAAB+LCAAAAAAAAAPtXFtv48YV/iuEnzYP8pCSLMkul4EutqNUF8OSs7t9WVDkyJ6aIlVe1qvHIi2QAgkQtGke0gBBi17ShxaLtAjQxRb9M7E3b/kLPTPDy5CibNHrJNtUwQLRnMtczsyc853jAdU3n84s6Ql2PeLY97eUbXlLwrbhmMQ+vb8V+NOSUtt6U1P3nxrYOtJdfYZ9EJZAy/b2nnrk/taZ78/3ELq4uNi+qGw77ikqy7KCHvZ7I+MMz/QSsT1ftw28FWuZN2ttaWrbnPWxr5u6r3PN+1vdUXe7jYnRAVpft/VT7G63Ao/Y2PP2bZ/4BHtU08W6j9ud/jt8YVp5u7atqGiJnki2AmKZXC4lyemhHAyLx2SGtbJclktyvaTIY0XeKyt75Z3tcrn2k0gxFlR7uuePsPuEGIww8vXZnKnLdUVW5LJS3lFRrhD0lRhAU4eWeYyfEA+bbWxZXiGLoHADm4YPqy5mTFlFgm7Y0e2ncOjq87Mx8S1cVP3AcbEBhrrV2AN8MXRD+43nPeCOz4jrLzr6onBfJx52h3NqjWKqmtpxbL9pYdc/mcOmYhP2HBia7wZYRSuYiVKHeAb8JnaATW2qW56olGKqDxz33JvrBh7AhUW0jwvbcnQTTpZPPJ8YyaBLDPXIdebQIwzecizzAHoNhXMYcc9dG0xMh205znkyuzymys4AOw2wpzPdj8SX6OrozLkY2tZiFEw8wyUTbHZakXQuT6U3L9RuB57vzGAWCUnlNIHS76MF/AeXLctRO9ggM906ssCOnlaBjlIEtRn4zpT4bccKZrYXTStDVR/Aosb4abzIuK0OYX9tanfH7tqRPLd0LiutcOxcxGMuM5gdBHLTM6IdX2ZkhTtAi3ZwmcM2ha7ygFgQC8TtEKjpgzE6w9jPPRWco1K3d0Cji9Za0DFVlFBUOJxwwIGq0RhRYv/GsrzH/sHIMVvdt81QTpFLSrlUEeUipjoIZsMJXOInbE2aArwMSYVVWC1Lt8+B+oD4Z4NmNPscjsrXvFJ+mafCdZ1b+oKRY7uINLVrG1ZgYu4FuvaUHUo6N76NK9nqEqkHF1tTdXsxXszB63pkz4cf97cgDu95vguRfksznMD23QV1FyoKRW/S8YKJzQbQrbV1pi7+WQAAY3EQ2EbbMdcfzeTWObGJv/4MncDlPnB9FWY96g4Dr4OpY2Gefm19o8iaPLeQ+MzGM8cmxvrWBiPT2Zu3WIgX3aq1NTC/X2vLWxDMeayjd31tNRfQIUS3QsM0Pc8xCDus4fUwBX204sp08FQPLEBmPsTV09jbZslq0zvPyogk9cS1Ip+nUdzrAfA1zNm2AYiBgrttw5lRAgK8+WCkIlGewh4D79unPd0+DQBYxH4lS489Lg2KY1e3PbqcGEdknG++kBr5KY5vNO68hgE7CNx5OcBVUUZOHePZ3HF1qw+GIQfhsQtBEuCPvu6fhS2IZhY2IiOjRDXWSs8smvhNYiws8WXQCx+6yQyRCdG1cIidyCQ0la6yD9fSausWmbjcq0bBO48HG5Ygwsj/0sUVRIfRHkCaBfH2x3hBsXfSCOnsyCoRgx9g6ki10XGjVqtXqwBlaFNlC77Xab8BsM0MmM32pB4B9zsl2JQG4OHAnNKhDtvJjRMGoCKKoop6EDl3NoE+nNEUIc0HVHFKIHQsycWMRF7rA9Y8sxaCJF9fzzFA8JsX713+/NOrv/3h6nf/vPr42TcvfvXyo8++ev6Xb158cvXlF5fvf3z5x7++/MWXV88+4ivlWupYn1iYzWzcqtQrZThjMUWlhkUMC1MTMFq3wyBw3FbDlI012vvd9mGvxXxJTIzUeThBNBtcOEHSHPHFsIHYdqLoFHARrR35prCd4grhSRPhf1pHlFqlzg3CbbhSO7RagraU3UalJFfXAWNlCsbkXDDWS0WBMLMGhLcrCGdk1GMeAmJrdU1NqexALi0rsTM34/OcI5PlhP2M9VOt09pvRZ3QdrqXRGKJDLeQYaj4rIjtiMkuStc2Hbj7RI9l+P0RGuGOfPDs8vmfL5+9+PpP//nq+Scp8XA7QkpOn7AoBn/o+ChqsIE6BDJpH5ypj6VDbGN6m52pNCSWpNsmv9iCuKDKB6X650xfehuCPtPvE3uhn0umblN9qRXMiNhJONv4+oqncvlyp85sHpV3d61idsRD1wnmS44poeZI5rqoZW5Gk9lseWoJL0eeT/bq0/fyFMKVdBIArPUHUmt8Ivln8TlkZDXL5FRBJDpX76YUwxHiqgHcCLh1YjO+IOAgw8iUoagPRsyO5/LjJBKFNJpxHTnE9iGN3qmzbCtsqqCq0N7Y/9XuDIIj65hZCugZivqW7u0/9UMHoA1UlCbAPOc6HEwnyUtjAnf4iUW//v3nUrezfdySlQqEipef/ePqi39d/vr9OFrwKBKGhWzgYNNhv+JO9sQrJCXRU+iBTpDRVl5ymMnX7/776vmHdOoZUVE5ufF70j7c4dOFNGK3OqUXq3CI0FYaSl2uxCJhrHPmxLjG62T4ibzodRIi5/PAeqQo1ZDHx6IYaKJ7gjkvf/n5yw/fvfrts6sP/n75/Des5pARSWlph5YzAY8T0dIKiSwb77A3bDV7iQifxNAFp0VPF/+hdr0IVUanRqAAF9CeEVi0NLQktsxSo1+CM0JhjWXaNGllXZPz6hgpCbUduC6HRHZYnh8Fc0DAcRlltQCrUAqod8ARqoiDk3a3k+ZDW+DSwJZis0hHm8y1hCzuZroeredwEDugtkmawEtVNcEeYQmeY6wnBPYBUR+y77qOm+dIEkYk1Qf4DM4BJRaPZRAdkUNtM9mriBD5rg3k3kDuDeTeQO4N5N5A7hshN4XUZ2Ye3o443xrYVlaDbeWxUjYVZceolxqGaZaqhlIv7e6Al5jUasq0Pq2ZdSx/H0A82qucv1CsnsTa4exW237dUczPnO7a875quL/W967j725O49A1G7dJrjbJ1ZrJlRInVxE49/ifATJ/HABXY2ong+74cb856B6d9Jrj7pBmDxRMCDGJi5z0xt2jXnf/+N5bgW262PyRxNMfX9ItS5rRvz7MLQKpxRv07zRCSEveLvFpxO0QysNNPsV+P+4ggvTv6FaAtbcAW/BfDKVq7eFgNG4OxmB9/hekTJd5I+jzucUCwKpBxscn+8WGQeKqOJzN5CUCMd6IxOs1XeKfgT4xhnPM/5oBHmdZLlaloCtRkvK0GC7LJtihk3G4Ar5twoV4CoJSjhRlwka2HfkzkY6EXAYJaQnKy0JQKu1Ar5xioJVJwWpONNMk4uSWEHICUq7cqlQgV/jmVAAtAX8k4Pssl5MEqI5SsQsto/KEhFZCbLQEmlE+kF1BXlKJj38uMe9UxcAjlxgNIEBBxHEHWkaN6G6qsUgEW/Ir4b31Yz8SCGg5JqdJKBVEUTZeigQkBD+UE+wyNJSOVij0SmhT7rvzch+6TYEP3V0hTwgsHTKdPgLI+jB5VRUR+IyTXmiDh9QlTIIE0CKcjfDp1d0elttAm7xu/r+O3J1UmNfPnl/P6nO1UW9UaRW1aPl5T+r3IdO9dRU61n8titH3Rth35tIxsYjH537ukT2WJzYtfSa1deKmVpxTjW40Grv1m8vRgxvq0UfH/f/lerRgyPWL0mVZrq35KPfbL0qXd6pKuSLL5euq0oLQ6rL0jbD1jirO+YKbWvMPrtbcAixg6/Z388Tj7cDXmcwxmQSvWH8ur64/lx8LUWi5yNyovi6PPaCJLV5MbMlKdU9aESekVDBZszwp9Hhd1JTuiT76jesrl9H8eP2R3FSwDKuUYl30mkolRLtG/fpC5Yj5gHj01WXKTH10RamyUdutKDcUK2MnB8vAMxLMVpQh8+qW6+pmSpjdQWc42B91m/lVzPLmichrDeAz7meD0jcofYPSNyh9g9I3KP27Qem3fhVyl/i8shqfVx4ryq68M60rpZo5LZeqWKmWdvGuWTJqtWp5Bxu7u+bO9wDd13oekpnD6/s65G6c6x0F+Ou97Gv1SmSTlW2ysuJZWWXztuT7fFsS5zObxyWbxyWbxyWbxyWbxyWbxyWbxyWbxyU/mCN3J7Xp9VPvb6VsHf7gX7KJTnIHW4Doin7wLtLuO09urQvnoqhq1xtaZmjnYp9Sic2SdCB+fpCeoaKTabouQAz6sbLC3wvsEfu8W2z1mlFTqpWJ0VB2ld1aQ5+Upzt6Fe9MKzW5qpcNwE2sU5oN0C5mAATpd2mKDaJQByWqJ98QOtbt04K9cQMzRfqdHbAUr3OCEv3GTtRWD4jr+Q8pCgh/ccqjmPKII8eHWpXDw4e8/UhTquG3MkECiaOh1LQj5+PzT1U6Vo/MSMGP8ciRg0p3AudgPudIsOiOtjv9AX7qq0joAVDD5KcAUPjXq4r0xq8VpECxftTXKJgU7g5FykfApyfrdtr7JgDM22uzDz8S6xUmwGDlbbvo2h45PfOL7mvdqCrV2q5eUswyLlXrZaWk17FZqk7rUx3jiQ7Xl36uL+wcIgfBFwUHofGGeIFuFddDmS/3av8Fd/umM/JXAAA=</t>
         </r>
       </text>
     </comment>
@@ -39,12 +39,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="164" formatCode="yyyy"/>
+    <numFmt numFmtId="164" formatCode="MM/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +64,23 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,19 +114,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,54 +444,54 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue - Tax ; Individual Income</t>
+          <t>(DC)Production: Liquefied Natural Gas</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Govt Revenue</t>
+          <t>(DC)Production: Liquefied Natural Gas: MMBTU</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Subnational</t>
         </is>
@@ -476,161 +502,165 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>Annual, ending "Dec" of each year</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>BTU hd</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>RMB mn</t>
+          <t>MN BTU th</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>RMB hd</t>
+          <t>BTU hd</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>NRT SOURCE TEST</t>
+          <t>Directorate General of Oil and Gas</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Discontinued</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Series ID</t>
         </is>
       </c>
-      <c r="B8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="C8" s="3">
-        <v>310901701</v>
-      </c>
-      <c r="D8" s="3">
-        <v>310901801</v>
-      </c>
-      <c r="E8" s="3">
-        <v>310901801</v>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>13521201 (DBEB)</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>13521201 (DBEB)</t>
+        </is>
+      </c>
+      <c r="D8" s="5">
+        <v>254123002</v>
+      </c>
+      <c r="E8" s="5">
+        <v>254123002</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>SR Code</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR866744</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>SR4825055</t>
+          <t>SR866744</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>SR4825071</t>
+          <t>SR4878432</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>SR4825071</t>
+          <t>SR4878432</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Mnemonic</t>
         </is>
@@ -641,7 +671,7 @@
       <c r="E10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Function Description</t>
         </is>
@@ -660,442 +690,2072 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>First Obs. Date</t>
         </is>
       </c>
-      <c r="B12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="C12" s="4">
-        <v>36130</v>
-      </c>
-      <c r="D12" s="4">
-        <v>18598</v>
-      </c>
-      <c r="E12" s="4">
-        <v>18598</v>
+      <c r="B12" s="6">
+        <v>30407</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30407</v>
+      </c>
+      <c r="D12" s="6">
+        <v>38718</v>
+      </c>
+      <c r="E12" s="6">
+        <v>38718</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Last Obs. Date</t>
         </is>
       </c>
-      <c r="B13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="C13" s="4">
-        <v>40878</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="6">
         <v>41244</v>
       </c>
-      <c r="E13" s="4">
+      <c r="C13" s="6">
         <v>41244</v>
       </c>
+      <c r="D13" s="6">
+        <v>41244</v>
+      </c>
+      <c r="E13" s="6">
+        <v>41244</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Last Update Time</t>
         </is>
       </c>
-      <c r="B14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="C14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="D14" s="5">
-        <v>41781</v>
-      </c>
-      <c r="E14" s="5">
-        <v>41781</v>
+      <c r="B14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="C14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43839</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43839</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="8" t="inlineStr">
         <is>
           <t>Series remarks</t>
         </is>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Suggestions</t>
         </is>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Mean</t>
         </is>
       </c>
       <c r="B17" s="2">
-        <v>1231.927</v>
+        <v>100734.4062390833</v>
       </c>
       <c r="C17" s="2">
-        <v>12319270</v>
+        <v>1007344062390.833</v>
       </c>
       <c r="D17" s="2">
-        <v>4180828.3</v>
+        <v>93374.63980350002</v>
       </c>
       <c r="E17" s="2">
-        <v>41808283000</v>
+        <v>933746398035</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Variance</t>
         </is>
       </c>
       <c r="B18" s="2">
-        <v>196242.7157566667</v>
+        <v>131298126.4678902</v>
       </c>
       <c r="C18" s="2">
-        <v>19624271575666.67</v>
+        <v>1.312981264678902e+22</v>
       </c>
       <c r="D18" s="2">
-        <v>5349818159198.678</v>
+        <v>67588679.72409233</v>
       </c>
       <c r="E18" s="2">
-        <v>5.349818159198679e+20</v>
+        <v>6.758867972409233e+21</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Standard Deviation</t>
         </is>
       </c>
       <c r="B19" s="2">
-        <v>442.9929071177852</v>
+        <v>11458.53945613882</v>
       </c>
       <c r="C19" s="2">
-        <v>4429929.071177852</v>
+        <v>114585394561.3882</v>
       </c>
       <c r="D19" s="2">
-        <v>2312967.392593047</v>
+        <v>8221.233467314521</v>
       </c>
       <c r="E19" s="2">
-        <v>23129673925.93047</v>
+        <v>82212334673.1452</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Skewness</t>
         </is>
       </c>
       <c r="B20" s="2">
-        <v>0.4639651794892382</v>
+        <v>0.2667012737278504</v>
       </c>
       <c r="C20" s="2">
-        <v>0.4639651794892376</v>
+        <v>0.2667012737278474</v>
       </c>
       <c r="D20" s="2">
-        <v>0.6338468816320344</v>
+        <v>0.5786993566761636</v>
       </c>
       <c r="E20" s="2">
-        <v>0.6338468816320337</v>
+        <v>0.5786993566761698</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Kurtosis</t>
         </is>
       </c>
       <c r="B21" s="2">
-        <v>-0.8990137168045287</v>
+        <v>-0.5720186950592745</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.8990137168045296</v>
+        <v>-0.572018695059278</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.9130575005537973</v>
+        <v>-0.2909755924600841</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.9130575005537995</v>
+        <v>-0.290975592460077</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Coefficient Variation</t>
         </is>
       </c>
       <c r="B22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.1137500074100113</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3595934719490564</v>
+        <v>0.1137500074100113</v>
       </c>
       <c r="D22" s="2">
-        <v>0.5532318542220561</v>
+        <v>0.08804567797654154</v>
       </c>
       <c r="E22" s="2">
-        <v>0.5532318542220562</v>
+        <v>0.08804567797654156</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Min</t>
         </is>
       </c>
       <c r="B23" s="2">
-        <v>727.63</v>
+        <v>80465.44901</v>
       </c>
       <c r="C23" s="2">
-        <v>7276300</v>
+        <v>804654490100</v>
       </c>
       <c r="D23" s="2">
-        <v>1638604</v>
+        <v>80465.44901</v>
       </c>
       <c r="E23" s="2">
-        <v>16386040000</v>
+        <v>804654490100</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
       <c r="B24" s="2">
-        <v>2026.83</v>
+        <v>135284.28729</v>
       </c>
       <c r="C24" s="2">
-        <v>20268300</v>
+        <v>1352842872900</v>
       </c>
       <c r="D24" s="2">
-        <v>8310151</v>
+        <v>112482.41951</v>
       </c>
       <c r="E24" s="2">
-        <v>83101510000</v>
+        <v>1124824195100</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Median</t>
         </is>
       </c>
       <c r="B25" s="2">
-        <v>1181.145</v>
+        <v>99617.61227500001</v>
       </c>
       <c r="C25" s="2">
-        <v>11811450</v>
+        <v>996176122750</v>
       </c>
       <c r="D25" s="2">
-        <v>3520474.5</v>
+        <v>92555.497445</v>
       </c>
       <c r="E25" s="2">
-        <v>35204745000</v>
+        <v>925554974450</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>No. of Obs</t>
         </is>
       </c>
       <c r="B26" s="2">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="C26" s="2">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E26" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="10">
+        <v>36892</v>
+      </c>
+      <c r="B27" s="11">
+        <v>135284.28729</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1352842872900</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="10">
+        <v>36923</v>
+      </c>
+      <c r="B28" s="11">
+        <v>118205.29328</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1182052932800</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="10">
+        <v>36951</v>
+      </c>
+      <c r="B29" s="11">
+        <v>109814.29374</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1098142937400</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="10">
+        <v>36982</v>
+      </c>
+      <c r="B30" s="11">
+        <v>96402.72714</v>
+      </c>
+      <c r="C30" s="11">
+        <v>964027271400</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="10">
+        <v>37012</v>
+      </c>
+      <c r="B31" s="11">
+        <v>94398.86853000001</v>
+      </c>
+      <c r="C31" s="11">
+        <v>943988685300</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="10">
+        <v>37043</v>
+      </c>
+      <c r="B32" s="11">
+        <v>90105.00971</v>
+      </c>
+      <c r="C32" s="11">
+        <v>901050097100</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="10">
+        <v>37073</v>
+      </c>
+      <c r="B33" s="11">
+        <v>96890.6566</v>
+      </c>
+      <c r="C33" s="11">
+        <v>968906566000</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="10">
+        <v>37104</v>
+      </c>
+      <c r="B34" s="11">
+        <v>100350.22953</v>
+      </c>
+      <c r="C34" s="11">
+        <v>1003502295300</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="10">
+        <v>37135</v>
+      </c>
+      <c r="B35" s="11">
+        <v>86493.05051</v>
+      </c>
+      <c r="C35" s="11">
+        <v>864930505100</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="10">
+        <v>37165</v>
+      </c>
+      <c r="B36" s="11">
+        <v>103714.2635</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1037142635000</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="10">
+        <v>37196</v>
+      </c>
+      <c r="B37" s="11">
+        <v>106549.4956</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1065494956000</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="10">
         <v>37226</v>
       </c>
-      <c r="B27" s="8">
-        <v>791.02</v>
-      </c>
-      <c r="C27" s="8">
-        <v>7910200</v>
-      </c>
-      <c r="D27" s="8">
-        <v>1638604</v>
-      </c>
-      <c r="E27" s="8">
-        <v>16386040000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7">
+      <c r="B38" s="11">
+        <v>119237.99421</v>
+      </c>
+      <c r="C38" s="11">
+        <v>1192379942100</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="10">
+        <v>37257</v>
+      </c>
+      <c r="B39" s="11">
+        <v>122198.50611</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1221985061100</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="10">
+        <v>37288</v>
+      </c>
+      <c r="B40" s="11">
+        <v>108966.68443</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1089666844300</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="10">
+        <v>37316</v>
+      </c>
+      <c r="B41" s="11">
+        <v>121418.17187</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1214181718700</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="10">
+        <v>37347</v>
+      </c>
+      <c r="B42" s="11">
+        <v>101807.1607</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1018071607000</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="10">
+        <v>37377</v>
+      </c>
+      <c r="B43" s="11">
+        <v>103857.4879</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1038574879000</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="10">
+        <v>37408</v>
+      </c>
+      <c r="B44" s="11">
+        <v>98341.8643</v>
+      </c>
+      <c r="C44" s="11">
+        <v>983418643000</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="10">
+        <v>37438</v>
+      </c>
+      <c r="B45" s="11">
+        <v>111639.42179</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1116394217900</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="10">
+        <v>37469</v>
+      </c>
+      <c r="B46" s="11">
+        <v>116130.63441</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1161306344100</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="10">
+        <v>37500</v>
+      </c>
+      <c r="B47" s="11">
+        <v>120969.70767</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1209697076700</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="10">
+        <v>37530</v>
+      </c>
+      <c r="B48" s="11">
+        <v>108214.74979</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1082147497900</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="10">
+        <v>37561</v>
+      </c>
+      <c r="B49" s="11">
+        <v>118808.14475</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1188081447500</v>
+      </c>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="10">
         <v>37591</v>
       </c>
-      <c r="B28" s="8">
-        <v>767.73</v>
-      </c>
-      <c r="C28" s="8">
-        <v>7677300</v>
-      </c>
-      <c r="D28" s="8">
-        <v>1890364</v>
-      </c>
-      <c r="E28" s="8">
-        <v>18903640000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7">
+      <c r="B50" s="11">
+        <v>120525.93459</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1205259345900</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="10">
+        <v>37622</v>
+      </c>
+      <c r="B51" s="11">
+        <v>114532.24564</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1145322456400</v>
+      </c>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="10">
+        <v>37653</v>
+      </c>
+      <c r="B52" s="11">
+        <v>112875.12373</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1128751237300</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="10">
+        <v>37681</v>
+      </c>
+      <c r="B53" s="11">
+        <v>101332.20911</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1013322091100</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="10">
+        <v>37712</v>
+      </c>
+      <c r="B54" s="11">
+        <v>114443.26143</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1144432614300</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="10">
+        <v>37742</v>
+      </c>
+      <c r="B55" s="11">
+        <v>114707.84875</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1147078487500</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="10">
+        <v>37773</v>
+      </c>
+      <c r="B56" s="11">
+        <v>105534.8806</v>
+      </c>
+      <c r="C56" s="11">
+        <v>1055348806000</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="10">
+        <v>37803</v>
+      </c>
+      <c r="B57" s="11">
+        <v>114707.84875</v>
+      </c>
+      <c r="C57" s="11">
+        <v>1147078487500</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="10">
+        <v>37834</v>
+      </c>
+      <c r="B58" s="11">
+        <v>113330.19592</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1133301959200</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="10">
+        <v>37865</v>
+      </c>
+      <c r="B59" s="11">
+        <v>117934.76226</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1179347622600</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="10">
+        <v>37895</v>
+      </c>
+      <c r="B60" s="11">
+        <v>113511.70234</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1135117023400</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="10">
+        <v>37926</v>
+      </c>
+      <c r="B61" s="11">
+        <v>111404.66038</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1114046603800</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="10">
         <v>37956</v>
       </c>
-      <c r="B29" s="8">
-        <v>727.63</v>
-      </c>
-      <c r="C29" s="8">
-        <v>7276300</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2171525</v>
-      </c>
-      <c r="E29" s="8">
-        <v>21715250000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7">
+      <c r="B62" s="11">
+        <v>110498.81766</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1104988176600</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="10">
+        <v>37987</v>
+      </c>
+      <c r="B63" s="11">
+        <v>110344.51003</v>
+      </c>
+      <c r="C63" s="11">
+        <v>1103445100300</v>
+      </c>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="10">
+        <v>38018</v>
+      </c>
+      <c r="B64" s="11">
+        <v>107329.43632</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1073294363200</v>
+      </c>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="10">
+        <v>38047</v>
+      </c>
+      <c r="B65" s="11">
+        <v>117176.82265</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1171768226500</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="10">
+        <v>38078</v>
+      </c>
+      <c r="B66" s="11">
+        <v>117912.23517</v>
+      </c>
+      <c r="C66" s="11">
+        <v>1179122351700</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="10">
+        <v>38108</v>
+      </c>
+      <c r="B67" s="11">
+        <v>91476.68664</v>
+      </c>
+      <c r="C67" s="11">
+        <v>914766866400</v>
+      </c>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="10">
+        <v>38139</v>
+      </c>
+      <c r="B68" s="11">
+        <v>104704.70249</v>
+      </c>
+      <c r="C68" s="11">
+        <v>1047047024900</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="10">
+        <v>38169</v>
+      </c>
+      <c r="B69" s="11">
+        <v>114780.70888</v>
+      </c>
+      <c r="C69" s="11">
+        <v>1147807088800</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="10">
+        <v>38200</v>
+      </c>
+      <c r="B70" s="11">
+        <v>114713.3204</v>
+      </c>
+      <c r="C70" s="11">
+        <v>1147133204000</v>
+      </c>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="10">
+        <v>38231</v>
+      </c>
+      <c r="B71" s="11">
+        <v>104816.91064</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1048169106400</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="10">
+        <v>38261</v>
+      </c>
+      <c r="B72" s="11">
+        <v>100696.94848</v>
+      </c>
+      <c r="C72" s="11">
+        <v>1006969484800</v>
+      </c>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="10">
+        <v>38292</v>
+      </c>
+      <c r="B73" s="11">
+        <v>104916.2006</v>
+      </c>
+      <c r="C73" s="11">
+        <v>1049162006000</v>
+      </c>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="10">
         <v>38322</v>
       </c>
-      <c r="B30" s="8">
-        <v>922.91</v>
-      </c>
-      <c r="C30" s="8">
-        <v>9229100</v>
-      </c>
-      <c r="D30" s="8">
-        <v>2639647</v>
-      </c>
-      <c r="E30" s="8">
-        <v>26396470000</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7">
+      <c r="B74" s="11">
+        <v>115048.72206</v>
+      </c>
+      <c r="C74" s="11">
+        <v>1150487220600</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="10">
+        <v>38353</v>
+      </c>
+      <c r="B75" s="11">
+        <v>112680.67959</v>
+      </c>
+      <c r="C75" s="11">
+        <v>1126806795900</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="10">
+        <v>38384</v>
+      </c>
+      <c r="B76" s="11">
+        <v>101812.53353</v>
+      </c>
+      <c r="C76" s="11">
+        <v>1018125335300</v>
+      </c>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="10">
+        <v>38412</v>
+      </c>
+      <c r="B77" s="11">
+        <v>106736.15124</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1067361512400</v>
+      </c>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="10">
+        <v>38443</v>
+      </c>
+      <c r="B78" s="11">
+        <v>96239.75436000001</v>
+      </c>
+      <c r="C78" s="11">
+        <v>962397543600</v>
+      </c>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="10">
+        <v>38473</v>
+      </c>
+      <c r="B79" s="11">
+        <v>97325.42521</v>
+      </c>
+      <c r="C79" s="11">
+        <v>973254252100</v>
+      </c>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="10">
+        <v>38504</v>
+      </c>
+      <c r="B80" s="11">
+        <v>95580.57651</v>
+      </c>
+      <c r="C80" s="11">
+        <v>955805765100</v>
+      </c>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="10">
+        <v>38534</v>
+      </c>
+      <c r="B81" s="11">
+        <v>107845.54405</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1078455440500</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="10">
+        <v>38565</v>
+      </c>
+      <c r="B82" s="11">
+        <v>105794.89011</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1057948901100</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="10">
+        <v>38596</v>
+      </c>
+      <c r="B83" s="11">
+        <v>100711.97732</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1007119773200</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="10">
+        <v>38626</v>
+      </c>
+      <c r="B84" s="11">
+        <v>101785.85411</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1017858541100</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="10">
+        <v>38657</v>
+      </c>
+      <c r="B85" s="11">
+        <v>100487.01933</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1004870193300</v>
+      </c>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="10">
         <v>38687</v>
       </c>
-      <c r="B31" s="8">
-        <v>1126.49</v>
-      </c>
-      <c r="C31" s="8">
-        <v>11264900</v>
-      </c>
-      <c r="D31" s="8">
-        <v>3164929</v>
-      </c>
-      <c r="E31" s="8">
-        <v>31649290000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7">
+      <c r="B86" s="11">
+        <v>99594.55590000001</v>
+      </c>
+      <c r="C86" s="11">
+        <v>995945559000</v>
+      </c>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="10">
+        <v>38718</v>
+      </c>
+      <c r="B87" s="11">
+        <v>102584.64169</v>
+      </c>
+      <c r="C87" s="11">
+        <v>1025846416900</v>
+      </c>
+      <c r="D87" s="11">
+        <v>102584.6417</v>
+      </c>
+      <c r="E87" s="11">
+        <v>1025846417000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="10">
+        <v>38749</v>
+      </c>
+      <c r="B88" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="C88" s="11">
+        <v>934675494400</v>
+      </c>
+      <c r="D88" s="11">
+        <v>93467.54944</v>
+      </c>
+      <c r="E88" s="11">
+        <v>934675494400</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="10">
+        <v>38777</v>
+      </c>
+      <c r="B89" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C89" s="11">
+        <v>986070121200</v>
+      </c>
+      <c r="D89" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="E89" s="11">
+        <v>986070121200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="10">
+        <v>38808</v>
+      </c>
+      <c r="B90" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="C90" s="11">
+        <v>973956436700</v>
+      </c>
+      <c r="D90" s="11">
+        <v>97395.64367</v>
+      </c>
+      <c r="E90" s="11">
+        <v>973956436700</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="10">
+        <v>38838</v>
+      </c>
+      <c r="B91" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="C91" s="11">
+        <v>920751243700</v>
+      </c>
+      <c r="D91" s="11">
+        <v>92075.12437000001</v>
+      </c>
+      <c r="E91" s="11">
+        <v>920751243700</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="10">
+        <v>38869</v>
+      </c>
+      <c r="B92" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="C92" s="11">
+        <v>952322381900</v>
+      </c>
+      <c r="D92" s="11">
+        <v>95232.23819</v>
+      </c>
+      <c r="E92" s="11">
+        <v>952322381900</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="10">
+        <v>38899</v>
+      </c>
+      <c r="B93" s="11">
+        <v>100047.70727</v>
+      </c>
+      <c r="C93" s="11">
+        <v>1000477072700</v>
+      </c>
+      <c r="D93" s="11">
+        <v>100047.7073</v>
+      </c>
+      <c r="E93" s="11">
+        <v>1000477073000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="10">
+        <v>38930</v>
+      </c>
+      <c r="B94" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="C94" s="11">
+        <v>953072401100</v>
+      </c>
+      <c r="D94" s="11">
+        <v>95307.24011</v>
+      </c>
+      <c r="E94" s="11">
+        <v>953072401100</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="10">
+        <v>38961</v>
+      </c>
+      <c r="B95" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="C95" s="11">
+        <v>899178379800</v>
+      </c>
+      <c r="D95" s="11">
+        <v>89917.83798</v>
+      </c>
+      <c r="E95" s="11">
+        <v>899178379800</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="10">
+        <v>38991</v>
+      </c>
+      <c r="B96" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="C96" s="11">
+        <v>983958323200</v>
+      </c>
+      <c r="D96" s="11">
+        <v>98395.83232</v>
+      </c>
+      <c r="E96" s="11">
+        <v>983958323200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="10">
+        <v>39022</v>
+      </c>
+      <c r="B97" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="C97" s="11">
+        <v>981701342800</v>
+      </c>
+      <c r="D97" s="11">
+        <v>98170.13428</v>
+      </c>
+      <c r="E97" s="11">
+        <v>981701342800</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="10">
         <v>39052</v>
       </c>
-      <c r="B32" s="8">
-        <v>1235.8</v>
-      </c>
-      <c r="C32" s="8">
-        <v>12358000</v>
-      </c>
-      <c r="D32" s="8">
-        <v>3876020</v>
-      </c>
-      <c r="E32" s="8">
-        <v>38760200000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
+      <c r="B98" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="C98" s="11">
+        <v>985689482600</v>
+      </c>
+      <c r="D98" s="11">
+        <v>98568.94826</v>
+      </c>
+      <c r="E98" s="11">
+        <v>985689482600</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="10">
+        <v>39083</v>
+      </c>
+      <c r="B99" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="C99" s="11">
+        <v>955242498000</v>
+      </c>
+      <c r="D99" s="11">
+        <v>95524.24980000001</v>
+      </c>
+      <c r="E99" s="11">
+        <v>955242498000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="10">
+        <v>39114</v>
+      </c>
+      <c r="B100" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="C100" s="11">
+        <v>836170226800</v>
+      </c>
+      <c r="D100" s="11">
+        <v>83617.02267999999</v>
+      </c>
+      <c r="E100" s="11">
+        <v>836170226800</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="10">
+        <v>39142</v>
+      </c>
+      <c r="B101" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="C101" s="11">
+        <v>986070121200</v>
+      </c>
+      <c r="D101" s="11">
+        <v>98607.01212</v>
+      </c>
+      <c r="E101" s="11">
+        <v>986070121200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="10">
+        <v>39173</v>
+      </c>
+      <c r="B102" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="C102" s="11">
+        <v>873135929200</v>
+      </c>
+      <c r="D102" s="11">
+        <v>87313.59292</v>
+      </c>
+      <c r="E102" s="11">
+        <v>873135929200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="10">
+        <v>39203</v>
+      </c>
+      <c r="B103" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="C103" s="11">
+        <v>890921227800</v>
+      </c>
+      <c r="D103" s="11">
+        <v>89092.12278000001</v>
+      </c>
+      <c r="E103" s="11">
+        <v>890921227800</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="10">
+        <v>39234</v>
+      </c>
+      <c r="B104" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="C104" s="11">
+        <v>835804962000</v>
+      </c>
+      <c r="D104" s="11">
+        <v>83580.49619999999</v>
+      </c>
+      <c r="E104" s="11">
+        <v>835804962000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="10">
+        <v>39264</v>
+      </c>
+      <c r="B105" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="C105" s="11">
+        <v>890628271900</v>
+      </c>
+      <c r="D105" s="11">
+        <v>89062.82719</v>
+      </c>
+      <c r="E105" s="11">
+        <v>890628271900</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="10">
+        <v>39295</v>
+      </c>
+      <c r="B106" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="C106" s="11">
+        <v>931599971000</v>
+      </c>
+      <c r="D106" s="11">
+        <v>93159.99709999999</v>
+      </c>
+      <c r="E106" s="11">
+        <v>931599971000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="10">
+        <v>39326</v>
+      </c>
+      <c r="B107" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="C107" s="11">
+        <v>865890822400</v>
+      </c>
+      <c r="D107" s="11">
+        <v>86589.08224</v>
+      </c>
+      <c r="E107" s="11">
+        <v>865890822400</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="10">
+        <v>39356</v>
+      </c>
+      <c r="B108" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="C108" s="11">
+        <v>930358705200</v>
+      </c>
+      <c r="D108" s="11">
+        <v>93035.87052</v>
+      </c>
+      <c r="E108" s="11">
+        <v>930358705200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="10">
+        <v>39387</v>
+      </c>
+      <c r="B109" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="C109" s="11">
+        <v>913561508400</v>
+      </c>
+      <c r="D109" s="11">
+        <v>91356.15084</v>
+      </c>
+      <c r="E109" s="11">
+        <v>913561508400</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="10">
         <v>39417</v>
       </c>
-      <c r="B33" s="8">
-        <v>1482.71</v>
-      </c>
-      <c r="C33" s="8">
-        <v>14827100</v>
-      </c>
-      <c r="D33" s="8">
-        <v>5132178</v>
-      </c>
-      <c r="E33" s="8">
-        <v>51321780000</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
+      <c r="B110" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="C110" s="11">
+        <v>956887379700</v>
+      </c>
+      <c r="D110" s="11">
+        <v>95688.73797</v>
+      </c>
+      <c r="E110" s="11">
+        <v>956887379700</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="10">
+        <v>39448</v>
+      </c>
+      <c r="B111" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="C111" s="11">
+        <v>963289469000</v>
+      </c>
+      <c r="D111" s="11">
+        <v>96328.9469</v>
+      </c>
+      <c r="E111" s="11">
+        <v>963289469000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="10">
+        <v>39479</v>
+      </c>
+      <c r="B112" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="C112" s="11">
+        <v>989537530300</v>
+      </c>
+      <c r="D112" s="11">
+        <v>98953.75303000001</v>
+      </c>
+      <c r="E112" s="11">
+        <v>989537530300</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="10">
+        <v>39508</v>
+      </c>
+      <c r="B113" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="C113" s="11">
+        <v>900977722200</v>
+      </c>
+      <c r="D113" s="11">
+        <v>90097.77222</v>
+      </c>
+      <c r="E113" s="11">
+        <v>900977722200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="10">
+        <v>39539</v>
+      </c>
+      <c r="B114" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="C114" s="11">
+        <v>821558079400</v>
+      </c>
+      <c r="D114" s="11">
+        <v>82155.80794</v>
+      </c>
+      <c r="E114" s="11">
+        <v>821558079400</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="10">
+        <v>39569</v>
+      </c>
+      <c r="B115" s="11">
+        <v>90612.21429</v>
+      </c>
+      <c r="C115" s="11">
+        <v>906122142900</v>
+      </c>
+      <c r="D115" s="11">
+        <v>90612.21428</v>
+      </c>
+      <c r="E115" s="11">
+        <v>906122142800</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="10">
+        <v>39600</v>
+      </c>
+      <c r="B116" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="C116" s="11">
+        <v>834686995600</v>
+      </c>
+      <c r="D116" s="11">
+        <v>83468.69955999999</v>
+      </c>
+      <c r="E116" s="11">
+        <v>834686995600</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="10">
+        <v>39630</v>
+      </c>
+      <c r="B117" s="11">
+        <v>85880.46563000001</v>
+      </c>
+      <c r="C117" s="11">
+        <v>858804656300</v>
+      </c>
+      <c r="D117" s="11">
+        <v>85880.46527</v>
+      </c>
+      <c r="E117" s="11">
+        <v>858804652700</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="10">
+        <v>39661</v>
+      </c>
+      <c r="B118" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="C118" s="11">
+        <v>880719520600</v>
+      </c>
+      <c r="D118" s="11">
+        <v>88071.95206</v>
+      </c>
+      <c r="E118" s="11">
+        <v>880719520600</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="10">
+        <v>39692</v>
+      </c>
+      <c r="B119" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="C119" s="11">
+        <v>864116581000</v>
+      </c>
+      <c r="D119" s="11">
+        <v>86411.6581</v>
+      </c>
+      <c r="E119" s="11">
+        <v>864116581000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="10">
+        <v>39722</v>
+      </c>
+      <c r="B120" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="C120" s="11">
+        <v>858634635700</v>
+      </c>
+      <c r="D120" s="11">
+        <v>85863.46357000001</v>
+      </c>
+      <c r="E120" s="11">
+        <v>858634635700</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="10">
+        <v>39753</v>
+      </c>
+      <c r="B121" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="C121" s="11">
+        <v>879111560200</v>
+      </c>
+      <c r="D121" s="11">
+        <v>87911.15601999999</v>
+      </c>
+      <c r="E121" s="11">
+        <v>879111560200</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="10">
         <v>39783</v>
       </c>
-      <c r="B34" s="8">
-        <v>1598.61</v>
-      </c>
-      <c r="C34" s="8">
-        <v>15986100</v>
-      </c>
-      <c r="D34" s="8">
-        <v>6133035</v>
-      </c>
-      <c r="E34" s="8">
-        <v>61330350000</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+      <c r="B122" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="C122" s="11">
+        <v>917899082200</v>
+      </c>
+      <c r="D122" s="11">
+        <v>91789.90822</v>
+      </c>
+      <c r="E122" s="11">
+        <v>917899082200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="10">
+        <v>39814</v>
+      </c>
+      <c r="B123" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="C123" s="11">
+        <v>920303717800</v>
+      </c>
+      <c r="D123" s="11">
+        <v>92030.37178</v>
+      </c>
+      <c r="E123" s="11">
+        <v>920303717800</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="10">
+        <v>39845</v>
+      </c>
+      <c r="B124" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="C124" s="11">
+        <v>804654490100</v>
+      </c>
+      <c r="D124" s="11">
+        <v>80465.44901</v>
+      </c>
+      <c r="E124" s="11">
+        <v>804654490100</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="10">
+        <v>39873</v>
+      </c>
+      <c r="B125" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="C125" s="11">
+        <v>815585178800</v>
+      </c>
+      <c r="D125" s="11">
+        <v>81558.51788</v>
+      </c>
+      <c r="E125" s="11">
+        <v>815585178800</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="10">
+        <v>39904</v>
+      </c>
+      <c r="B126" s="11">
+        <v>81657.46120000001</v>
+      </c>
+      <c r="C126" s="11">
+        <v>816574612000</v>
+      </c>
+      <c r="D126" s="11">
+        <v>81657.46119</v>
+      </c>
+      <c r="E126" s="11">
+        <v>816574611900</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="10">
+        <v>39934</v>
+      </c>
+      <c r="B127" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="C127" s="11">
+        <v>833087852900</v>
+      </c>
+      <c r="D127" s="11">
+        <v>83308.78529</v>
+      </c>
+      <c r="E127" s="11">
+        <v>833087852900</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="10">
+        <v>39965</v>
+      </c>
+      <c r="B128" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="C128" s="11">
+        <v>848394901900</v>
+      </c>
+      <c r="D128" s="11">
+        <v>84839.49019</v>
+      </c>
+      <c r="E128" s="11">
+        <v>848394901900</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="10">
+        <v>39995</v>
+      </c>
+      <c r="B129" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="C129" s="11">
+        <v>904136671200</v>
+      </c>
+      <c r="D129" s="11">
+        <v>90413.66712</v>
+      </c>
+      <c r="E129" s="11">
+        <v>904136671200</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="10">
+        <v>40026</v>
+      </c>
+      <c r="B130" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="C130" s="11">
+        <v>859455674300</v>
+      </c>
+      <c r="D130" s="11">
+        <v>85945.56743</v>
+      </c>
+      <c r="E130" s="11">
+        <v>859455674300</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="10">
+        <v>40057</v>
+      </c>
+      <c r="B131" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="C131" s="11">
+        <v>846724391300</v>
+      </c>
+      <c r="D131" s="11">
+        <v>84672.43913</v>
+      </c>
+      <c r="E131" s="11">
+        <v>846724391300</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="10">
+        <v>40087</v>
+      </c>
+      <c r="B132" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="C132" s="11">
+        <v>853705440100</v>
+      </c>
+      <c r="D132" s="11">
+        <v>85370.54401</v>
+      </c>
+      <c r="E132" s="11">
+        <v>853705440100</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="10">
+        <v>40118</v>
+      </c>
+      <c r="B133" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="C133" s="11">
+        <v>865784388000</v>
+      </c>
+      <c r="D133" s="11">
+        <v>86578.4388</v>
+      </c>
+      <c r="E133" s="11">
+        <v>865784388000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="10">
         <v>40148</v>
       </c>
-      <c r="B35" s="8">
-        <v>1639.54</v>
-      </c>
-      <c r="C35" s="8">
-        <v>16395400</v>
-      </c>
-      <c r="D35" s="8">
-        <v>6851830</v>
-      </c>
-      <c r="E35" s="8">
-        <v>68518300000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7">
+      <c r="B134" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="C134" s="11">
+        <v>971566566700</v>
+      </c>
+      <c r="D134" s="11">
+        <v>97156.65667</v>
+      </c>
+      <c r="E134" s="11">
+        <v>971566566700</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="10">
+        <v>40179</v>
+      </c>
+      <c r="B135" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="C135" s="11">
+        <v>972891083800</v>
+      </c>
+      <c r="D135" s="11">
+        <v>97289.10838000001</v>
+      </c>
+      <c r="E135" s="11">
+        <v>972891083800</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="10">
+        <v>40210</v>
+      </c>
+      <c r="B136" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="C136" s="11">
+        <v>946714368000</v>
+      </c>
+      <c r="D136" s="11">
+        <v>94671.4368</v>
+      </c>
+      <c r="E136" s="11">
+        <v>946714368000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="10">
+        <v>40238</v>
+      </c>
+      <c r="B137" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="C137" s="11">
+        <v>1104032431400</v>
+      </c>
+      <c r="D137" s="11">
+        <v>110403.24314</v>
+      </c>
+      <c r="E137" s="11">
+        <v>1104032431400</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="10">
+        <v>40269</v>
+      </c>
+      <c r="B138" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="C138" s="11">
+        <v>996406686500</v>
+      </c>
+      <c r="D138" s="11">
+        <v>99640.66865000001</v>
+      </c>
+      <c r="E138" s="11">
+        <v>996406686500</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="10">
+        <v>40299</v>
+      </c>
+      <c r="B139" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="C139" s="11">
+        <v>1100558161000</v>
+      </c>
+      <c r="D139" s="11">
+        <v>110055.8161</v>
+      </c>
+      <c r="E139" s="11">
+        <v>1100558161000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="10">
+        <v>40330</v>
+      </c>
+      <c r="B140" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="C140" s="11">
+        <v>949300296800</v>
+      </c>
+      <c r="D140" s="11">
+        <v>94930.02968000001</v>
+      </c>
+      <c r="E140" s="11">
+        <v>949300296800</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="10">
+        <v>40360</v>
+      </c>
+      <c r="B141" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="C141" s="11">
+        <v>1110791593300</v>
+      </c>
+      <c r="D141" s="11">
+        <v>111079.15933</v>
+      </c>
+      <c r="E141" s="11">
+        <v>1110791593300</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="10">
+        <v>40391</v>
+      </c>
+      <c r="B142" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="C142" s="11">
+        <v>1124824195100</v>
+      </c>
+      <c r="D142" s="11">
+        <v>112482.41951</v>
+      </c>
+      <c r="E142" s="11">
+        <v>1124824195100</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="10">
+        <v>40422</v>
+      </c>
+      <c r="B143" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="C143" s="11">
+        <v>1055031781100</v>
+      </c>
+      <c r="D143" s="11">
+        <v>105503.17811</v>
+      </c>
+      <c r="E143" s="11">
+        <v>1055031781100</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="10">
+        <v>40452</v>
+      </c>
+      <c r="B144" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="C144" s="11">
+        <v>1077650252900</v>
+      </c>
+      <c r="D144" s="11">
+        <v>107765.02529</v>
+      </c>
+      <c r="E144" s="11">
+        <v>1077650252900</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="10">
+        <v>40483</v>
+      </c>
+      <c r="B145" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="C145" s="11">
+        <v>1013640360700</v>
+      </c>
+      <c r="D145" s="11">
+        <v>101364.03607</v>
+      </c>
+      <c r="E145" s="11">
+        <v>1013640360700</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="10">
         <v>40513</v>
       </c>
-      <c r="B36" s="8">
-        <v>2026.83</v>
-      </c>
-      <c r="C36" s="8">
-        <v>20268300</v>
-      </c>
-      <c r="D36" s="8">
-        <v>8310151</v>
-      </c>
-      <c r="E36" s="8">
-        <v>83101510000</v>
+      <c r="B146" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="C146" s="11">
+        <v>1093540093800</v>
+      </c>
+      <c r="D146" s="11">
+        <v>109354.00938</v>
+      </c>
+      <c r="E146" s="11">
+        <v>1093540093800</v>
       </c>
     </row>
   </sheetData>
@@ -1115,45 +2775,45 @@
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>146</EndRow>
           <EndCol>2</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas</DisplayName>
+          <SeriesId>13521201</SeriesId>
+          <Code>SR866744</Code>
           <Order>0</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>3</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>146</EndRow>
           <EndCol>3</EndCol>
-          <Name>Govt Revenue - Tax ; Individual Income</Name>
-          <DisplayName>Govt Revenue - Tax ; Individual Income</DisplayName>
-          <SeriesId>310901701</SeriesId>
-          <Code>SR4825055</Code>
+          <Name>(DC)Production: Liquefied Natural Gas</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas</DisplayName>
+          <SeriesId>13521201</SeriesId>
+          <Code>SR866744</Code>
           <Order>1</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>4</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>146</EndRow>
           <EndCol>4</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>2</Order>
         </MetadataSeries>
         <MetadataSeries>
           <InitRow>1</InitRow>
           <InitCol>5</InitCol>
-          <EndRow>36</EndRow>
+          <EndRow>146</EndRow>
           <EndCol>5</EndCol>
-          <Name>Govt Revenue</Name>
-          <DisplayName>Govt Revenue</DisplayName>
-          <SeriesId>310901801</SeriesId>
-          <Code>SR4825071</Code>
+          <Name>(DC)Production: Liquefied Natural Gas: MMBTU</Name>
+          <DisplayName>(DC)Production: Liquefied Natural Gas: MMBTU</DisplayName>
+          <SeriesId>254123002</SeriesId>
+          <Code>SR4878432</Code>
           <Order>3</Order>
         </MetadataSeries>
       </MetaDataSeries>
@@ -1163,7 +2823,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E83C95E4-9C68-4AF1-AE4C-97C8AC7821B1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD7C2077-F0F8-4228-838E-E53231612BBA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
   </ds:schemaRefs>
